--- a/static/templates/TemplateInformePregradoModificado.xlsx
+++ b/static/templates/TemplateInformePregradoModificado.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27645" yWindow="7590" windowWidth="21600" windowHeight="11505"/>
+    <workbookView xWindow="-28920" yWindow="5175" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,83 +24,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>PRIMER APELLIDO</t>
-  </si>
-  <si>
-    <t>SEGUNDO APELIIDO</t>
-  </si>
-  <si>
-    <t>NOMBRES</t>
-  </si>
-  <si>
-    <t>ESTADO</t>
-  </si>
-  <si>
-    <t>DOCUMENTO</t>
-  </si>
-  <si>
-    <t>CODIGO</t>
   </si>
   <si>
     <t>UNIVERSIDAD DISTRITAL FRANCISCO JOSÉ DE CALDAS
 REPORTE CODIFICACIÓN</t>
   </si>
   <si>
-    <t>DESCUENTOS</t>
-  </si>
-  <si>
-    <t>Once</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Prueba Aspirante</t>
-  </si>
-  <si>
-    <t>Admitido</t>
-  </si>
-  <si>
-    <t>2334345</t>
-  </si>
-  <si>
-    <t>20202125002</t>
-  </si>
-  <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>Doce</t>
-  </si>
-  <si>
-    <t>2123243</t>
-  </si>
-  <si>
-    <t>20202125001</t>
-  </si>
-  <si>
-    <t>[2]</t>
+    <t>Informe Liquidacion Pregrado</t>
+  </si>
+  <si>
+    <t>Datos Estudiantes</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Apellidos</t>
+  </si>
+  <si>
+    <t>Nombres</t>
+  </si>
+  <si>
+    <t>Documento</t>
+  </si>
+  <si>
+    <t>Puntaje</t>
+  </si>
+  <si>
+    <t>Caso</t>
+  </si>
+  <si>
+    <t>Variable A</t>
+  </si>
+  <si>
+    <t>Variable B</t>
+  </si>
+  <si>
+    <t>Variable Globales</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>A1 (Lugar de residencia responsable)</t>
+  </si>
+  <si>
+    <t>A2 (Valor matricula ultimo año secundaria)</t>
+  </si>
+  <si>
+    <t>A3 (Ingresos brutos familiares mensuales)</t>
+  </si>
+  <si>
+    <t>B1 (Lugar de residencia responsable)</t>
+  </si>
+  <si>
+    <t>B2 (Residencia padres o responsable)</t>
+  </si>
+  <si>
+    <t>B3 (Nucleo familiar)</t>
+  </si>
+  <si>
+    <t>B4 (Situacion laboral aspírante)</t>
+  </si>
+  <si>
+    <t>PBM (Puntos básicos matricula)</t>
+  </si>
+  <si>
+    <t>Carnet estudiantil (una unica vez)</t>
+  </si>
+  <si>
+    <t>Seguro estudiantil (semestral)</t>
+  </si>
+  <si>
+    <t>Sistematizacion (una unica vez)</t>
+  </si>
+  <si>
+    <t>1111111111</t>
+  </si>
+  <si>
+    <t>pruebaprueba</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Dentro del perimetro urbano</t>
+  </si>
+  <si>
+    <t>Vive solo</t>
+  </si>
+  <si>
+    <t>Empleado</t>
+  </si>
+  <si>
+    <t>4546498</t>
+  </si>
+  <si>
+    <t>FranzGregorio</t>
+  </si>
+  <si>
+    <t>KafkaSamsa</t>
+  </si>
+  <si>
+    <t>Desempleado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -117,18 +154,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="0" tint="-0.1499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -143,6 +180,43 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -170,27 +244,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true" applyAlignment="false">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
   </cellXfs>
@@ -567,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E81D2D7-8CC3-4437-BACD-C3D741F67BDE}">
-  <dimension ref="A1:AF9"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="true" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -581,147 +670,494 @@
     <col customWidth="true" max="6" min="6" style="1" width="18.42578125"/>
     <col customWidth="true" max="7" min="7" style="1" width="18.28515625"/>
     <col customWidth="true" max="8" min="8" width="15.28515625"/>
+    <col customWidth="true" max="10" min="9" width="11.42578125"/>
+    <col customWidth="true" max="22" min="22" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1"/>
-    <row r="2" spans="1:8" ht="15" customHeight="true">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:25" ht="15" customHeight="true">
+      <c r="A2" s="8"/>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y9" s="2"/>
+    </row>
+    <row r="10" spans="1:25" ht="48" customHeight="true">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="11"/>
+      <c r="T10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X10" s="7"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="1"/>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+    <row r="12">
+      <c r="A12" s="12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="12">
+        <v>45</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1.54</v>
+      </c>
+      <c r="I12" s="12">
+        <v>100</v>
+      </c>
+      <c r="J12" s="12">
+        <v>7.69</v>
+      </c>
+      <c r="K12" s="12">
+        <v>75</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12">
+        <v>1</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="S12" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="T12" s="12">
+        <v>61.405</v>
+      </c>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="13">
+      <c r="A13" s="12">
+        <v>2</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="12">
+        <v>45</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="I13" s="12">
+        <v>30</v>
+      </c>
+      <c r="J13" s="12">
+        <v>11.54</v>
+      </c>
+      <c r="K13" s="12">
+        <v>90</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7">
+      <c r="P13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="12">
         <v>1</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="D10" s="4"/>
+      <c r="T13" s="12">
+        <v>50.79</v>
+      </c>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="17">
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="B2:X4"/>
+    <mergeCell ref="A7:X8"/>
+    <mergeCell ref="B5:X6"/>
+    <mergeCell ref="X9:X11"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:H4"/>
-    <mergeCell ref="B5:H6"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:E10"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L9:R9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
